--- a/table.xlsx
+++ b/table.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -537,6 +537,870 @@
         <v>1</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B8" t="n">
+        <v>55</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2020-05-04 19:34:13.142694</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B9" t="n">
+        <v>56</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2020-05-04 19:35:22.203000</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B10" t="n">
+        <v>57</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2020-05-04 19:37:07.273109</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B11" t="n">
+        <v>58</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2020-05-04 23:10:37.796662</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B12" t="n">
+        <v>59</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>5</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2020-05-04 23:26:56.038550</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B13" t="n">
+        <v>60</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2020-05-04 23:35:23.272734</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B14" t="n">
+        <v>61</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2020-05-04 23:36:54.395357</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B15" t="n">
+        <v>62</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2020-05-04 23:45:05.355815</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B16" t="n">
+        <v>63</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2020-05-04 23:46:32.119230</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B17" t="n">
+        <v>64</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2020-05-04 23:53:59.775413</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B18" t="n">
+        <v>65</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2020-05-04 23:59:24.802273</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B19" t="n">
+        <v>66</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>После обеда</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2020-05-01 02:02:00.000000</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B20" t="n">
+        <v>67</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2020-05-05 00:02:53.072348</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B21" t="n">
+        <v>68</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>5</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2020-05-05 00:10:27.811100</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B22" t="n">
+        <v>69</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>5</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2020-05-05 00:22:36.583317</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B23" t="n">
+        <v>70</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>5</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2020-05-05 00:26:25.665176</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B24" t="n">
+        <v>71</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2020-05-05 00:28:33.192102</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B25" t="n">
+        <v>72</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>5</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2020-05-05 00:31:12.329153</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B26" t="n">
+        <v>73</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>5</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2020-05-05 00:33:47.342156</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B27" t="n">
+        <v>74</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2020-05-05 00:35:11.305545</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B28" t="n">
+        <v>75</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>5</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2020-05-05 00:36:23.386418</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B29" t="n">
+        <v>76</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2020-05-05 00:49:17.953007</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B30" t="n">
+        <v>77</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>5</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2020-05-05 02:06:55.766041</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B31" t="n">
+        <v>78</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>5</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2020-05-05 02:14:36.628527</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B32" t="n">
+        <v>79</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>5</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2020-05-05 02:16:32.070424</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B33" t="n">
+        <v>80</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>5</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2020-05-05 02:17:08.894024</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B34" t="n">
+        <v>81</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>5</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2020-05-05 02:17:34.301492</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B35" t="n">
+        <v>82</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2020-05-05 02:20:18.397570</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B36" t="n">
+        <v>83</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>5</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2020-05-05 02:23:34.332671</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B37" t="n">
+        <v>84</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>5</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2020-05-05 02:24:27.260934</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B38" t="n">
+        <v>85</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2020-05-05 02:24:49.740630</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B39" t="n">
+        <v>86</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2020-05-02 00:02:00.000000</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B40" t="n">
+        <v>87</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>5</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2020-05-05 02:27:49.333614</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B41" t="n">
+        <v>88</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>5</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2020-05-05 02:28:40.206908</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B42" t="n">
+        <v>89</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>5</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>2020-05-05 02:34:07.963125</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B43" t="n">
+        <v>90</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>5</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2020-05-05 02:35:45.223434</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/table.xlsx
+++ b/table.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -395,10 +395,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -410,19 +410,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2020-05-04 18:43:20.607767</t>
+          <t>2020-05-02 16:34:49.568989</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -434,19 +434,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2020-05-04 18:43:45.616649</t>
+          <t>2020-05-02 16:40:48.080840</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -458,19 +458,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2020-05-04 18:43:58.544758</t>
+          <t>2020-05-02 16:55:41.330726</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -482,19 +482,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2020-05-04 18:45:20.524315</t>
+          <t>2020-05-03 14:08:01.792049</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -506,19 +506,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2020-05-04 18:47:16.440884</t>
+          <t>2020-05-03 18:15:42.626075</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -530,19 +530,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2020-05-04 18:47:27.002783</t>
+          <t>2020-05-03 20:56:15.288843</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -554,19 +554,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2020-05-04 19:34:13.142694</t>
+          <t>2020-05-03 20:57:57.550021</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -574,23 +574,23 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2020-05-04 19:35:22.203000</t>
+          <t>2020-05-03 21:01:57.628271</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -598,27 +598,27 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2020-05-04 19:37:07.273109</t>
+          <t>2020-05-03 21:03:24.347500</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>no data</t>
+          <t>После ужина</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -626,19 +626,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2020-05-04 23:10:37.796662</t>
+          <t>2020-05-03 21:07:23.184095</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -650,19 +650,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2020-05-04 23:26:56.038550</t>
+          <t>2020-05-03 21:09:11.669093</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -674,19 +674,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2020-05-04 23:35:23.272734</t>
+          <t>2020-05-03 21:10:46.783247</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -698,19 +698,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2020-05-04 23:36:54.395357</t>
+          <t>2020-05-03 21:15:17.672041</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -722,19 +722,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2020-05-04 23:45:05.355815</t>
+          <t>2020-05-03 21:36:38.098708</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -746,19 +746,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2020-05-04 23:46:32.119230</t>
+          <t>2020-05-03 21:43:55.104036</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -770,19 +770,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2020-05-04 23:53:59.775413</t>
+          <t>2020-05-03 22:59:45.960226</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -794,47 +794,47 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2020-05-04 23:59:24.802273</t>
+          <t>2020-05-03 23:05:50.562025</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>После обеда</t>
+          <t>После ужина</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2020-05-01 02:02:00.000000</t>
+          <t>2020-05-03 23:25:38.055793</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>no data</t>
+          <t>После обеда</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -842,67 +842,65 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2020-05-05 00:02:53.072348</t>
+          <t>2020-05-03 23:28:18.937189</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
           <t>no data</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>5</v>
-      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2020-05-05 00:10:27.811100</t>
+          <t>2020-05-03 23:28:28.064208</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>no data</t>
+          <t>После завтрака</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2020-05-05 00:22:36.583317</t>
+          <t>2020-05-05 02:05:00.000000</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -914,43 +912,43 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2020-05-05 00:26:25.665176</t>
+          <t>2020-05-03 23:31:17.792296</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>no data</t>
+          <t>Натощак</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2020-05-05 00:28:33.192102</t>
+          <t>2020-05-03 23:32:31.099551</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -962,19 +960,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2020-05-05 00:31:12.329153</t>
+          <t>2020-05-03 23:33:21.012221</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -986,19 +984,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2020-05-05 00:33:47.342156</t>
+          <t>2020-05-04 02:17:50.598058</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1006,23 +1004,23 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2020-05-05 00:35:11.305545</t>
+          <t>2020-05-04 02:27:19.994891</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1034,19 +1032,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2020-05-05 00:36:23.386418</t>
+          <t>2020-05-04 02:27:53.560667</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1054,23 +1052,23 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2020-05-05 00:49:17.953007</t>
+          <t>2020-05-04 02:29:48.966439</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1082,19 +1080,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2020-05-05 02:06:55.766041</t>
+          <t>2020-05-04 02:30:51.091206</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1106,19 +1104,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2020-05-05 02:14:36.628527</t>
+          <t>2020-05-04 02:31:57.692751</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1130,19 +1128,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2020-05-05 02:16:32.070424</t>
+          <t>2020-05-04 15:06:35.757952</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1154,19 +1152,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2020-05-05 02:17:08.894024</t>
+          <t>2020-05-04 16:02:28.732456</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1178,19 +1176,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2020-05-05 02:17:34.301492</t>
+          <t>2020-05-04 16:12:34.273494</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1198,23 +1196,23 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2020-05-05 02:20:18.397570</t>
+          <t>2020-05-04 16:17:28.584108</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1226,19 +1224,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2020-05-05 02:23:34.332671</t>
+          <t>2020-05-04 16:23:06.621382</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1250,19 +1248,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2020-05-05 02:24:27.260934</t>
+          <t>2020-05-04 16:27:58.220380</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1270,23 +1268,23 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>8.1</v>
+        <v>5</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2020-05-05 02:24:49.740630</t>
+          <t>2020-05-04 16:40:20.532348</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1294,23 +1292,23 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>7.6</v>
+        <v>5</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2020-05-02 00:02:00.000000</t>
+          <t>2020-05-04 16:43:24.749810</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1322,19 +1320,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2020-05-05 02:27:49.333614</t>
+          <t>2020-05-04 17:05:17.149420</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1346,19 +1344,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2020-05-05 02:28:40.206908</t>
+          <t>2020-05-04 17:06:53.566686</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1370,19 +1368,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2020-05-05 02:34:07.963125</t>
+          <t>2020-05-04 17:11:34.673348</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1394,11 +1392,779 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2020-05-05 02:35:45.223434</t>
+          <t>2020-05-04 17:14:29.773410</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>43</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>5</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2020-05-04 17:26:39.452249</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>44</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>5</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>2020-05-04 17:31:17.005989</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>45</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>5</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>2020-05-04 18:10:09.363889</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>46</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>5</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2020-05-04 18:40:29.231211</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>47</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>5</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>2020-05-04 18:42:24.030288</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B49" t="n">
+        <v>52</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>5</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>2020-05-04 18:45:50.878754</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B50" t="n">
+        <v>94</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>5</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>2020-05-05 16:13:14.973801</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B51" t="n">
+        <v>95</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>5</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>2020-05-05 16:16:07.186182</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B52" t="n">
+        <v>96</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>5</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>2020-05-05 16:21:50.693195</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B53" t="n">
+        <v>97</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>5</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>2020-05-05 16:25:19.643307</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B54" t="n">
+        <v>98</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>5</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>2020-05-05 16:29:18.039216</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B55" t="n">
+        <v>99</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>5</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>2020-05-05 16:42:48.844429</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B56" t="n">
+        <v>100</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>5</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>2020-05-05 16:56:26.417194</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B57" t="n">
+        <v>101</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>5</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>2020-05-05 16:59:10.025798</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B58" t="n">
+        <v>102</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>5</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>2020-05-05 17:00:05.304422</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B59" t="n">
+        <v>103</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>5</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>2020-05-05 17:02:03.191547</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B60" t="n">
+        <v>104</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>5</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>2020-05-05 17:04:24.527116</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B61" t="n">
+        <v>105</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>2020-05-05 17:04:53.243089</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B62" t="n">
+        <v>106</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>2020-05-05 17:04:59.374668</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B63" t="n">
+        <v>107</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>2020-05-05 17:05:08.292849</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B64" t="n">
+        <v>108</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>2020-05-05 17:05:15.906478</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B65" t="n">
+        <v>109</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>5</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>2020-05-05 17:59:26.081645</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B66" t="n">
+        <v>110</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>5</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>2020-05-05 18:03:46.504236</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B67" t="n">
+        <v>111</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>5</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>2020-05-05 18:04:49.151735</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B68" t="n">
+        <v>112</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>5</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>2020-05-05 18:14:08.325029</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B69" t="n">
+        <v>113</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>5</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>2020-05-05 18:16:19.769854</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B70" t="n">
+        <v>114</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>5</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>2020-05-05 18:19:58.431855</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B71" t="n">
+        <v>115</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>5</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>2020-05-05 18:20:39.583188</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B72" t="n">
+        <v>116</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>2020-05-05 18:21:46.675992</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B73" t="n">
+        <v>117</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>5</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>2020-05-05 18:25:01.803181</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B74" t="n">
+        <v>118</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>5</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>2020-05-05 18:26:08.075234</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B75" t="n">
+        <v>119</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>5</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>2020-05-05 18:26:42.601910</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
